--- a/Descargas/R15_1º Juzgado De Letras De San Carlos_Familia_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_1º Juzgado De Letras De San Carlos_Familia_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -231,197 +231,197 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos Aumento</t>
+          <t xml:space="preserve">Alimentos, Aumento</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Alimentos Rebaja</t>
+          <t xml:space="preserve">Alimentos, Cesacion</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Alimentos, Aumento</t>
+          <t xml:space="preserve">Alimentos, Otros</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Alimentos, Cesacion</t>
+          <t xml:space="preserve">Alimentos, Rebaja</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Alimentos, Otros</t>
+          <t xml:space="preserve">Compensacion Economica</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Alimentos, Rebaja</t>
+          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Compensacion Economica</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño</t>
+          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
+          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
         </is>
       </c>
       <c r="B13" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
+          <t xml:space="preserve">Divorcio Por Culpa</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
+          <t xml:space="preserve">Otros Asuntos Voluntarios</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
+          <t xml:space="preserve">Otros Procedimientos Menores</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Divorcio Por Culpa</t>
+          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Otros Asuntos De Tramitacion Ordinaria</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Otros Procedimientos Menores</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
         </is>
       </c>
       <c r="B19" s="65">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
+          <t xml:space="preserve">Relación Directa Y Regular Suspensión</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
+          <t xml:space="preserve">Separacion Judicial De Bienes</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
+          <t xml:space="preserve">Separacion Matrimonial</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B24" s="65">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
